--- a/diary/2017-2-24(L).xlsx
+++ b/diary/2017-2-24(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>P</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>堅果 100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +91,30 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,12 +139,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G5" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -425,18 +473,24 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -449,8 +503,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -463,22 +520,24 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -491,8 +550,9 @@
       <c r="D5" s="1">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -506,7 +566,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -520,18 +580,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
         <f>SUM(B2:B11)</f>
-        <v>230.3</v>
+        <v>253.3</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C11)</f>
@@ -539,7 +599,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D7)</f>
-        <v>105.9</v>
+        <v>106.6</v>
       </c>
     </row>
   </sheetData>
